--- a/assets/experiences.xlsx
+++ b/assets/experiences.xlsx
@@ -22,6 +22,24 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Trilogic - Support for Teaching and Learning Programming Logic (Academic Project)</t>
+  </si>
+  <si>
+    <t>Organization of tasks and coordination of meetings to assign activities to participants. Testing and analysis of the previously developed Web platform. Planning and development of a new graphic design for the Web platform. Delivery of Programming Logic workshops for the platform's target audience.</t>
+  </si>
+  <si>
+    <t>Jan, 2021 - Dec, 2021</t>
+  </si>
+  <si>
+    <t>Logimix - Educational Robotics Workshops in Professional Education: The Development of Computational Thinking as an Aid to Programming Logic (Academic Project)</t>
+  </si>
+  <si>
+    <t>Organization and planning of Educational Robotics workshops, including delivery in local schools and to the surrounding community. Dissemination of the project on social media and documentation of the different stages of the workshops.</t>
+  </si>
+  <si>
+    <t>Jan, 2022 - Dec, 2022</t>
+  </si>
+  <si>
     <t>Junior Software Developer</t>
   </si>
   <si>
@@ -29,24 +47,6 @@
   </si>
   <si>
     <t>Jun, 2023 - Present</t>
-  </si>
-  <si>
-    <t>Trilogic - Support for Teaching and Learning Programming Logic (Academic Project)</t>
-  </si>
-  <si>
-    <t>Organization of tasks and coordination of meetings to assign activities to participants. Testing and analysis of the previously developed Web platform. Planning and development of a new graphic design for the Web platform. Delivery of Programming Logic workshops for the platform's target audience.</t>
-  </si>
-  <si>
-    <t>Jan, 2021 - Dec, 2021</t>
-  </si>
-  <si>
-    <t>Logimix - Educational Robotics Workshops in Professional Education: The Development of Computational Thinking as an Aid to Programming Logic (IFRS - Canoas Campus)</t>
-  </si>
-  <si>
-    <t>Organization and planning of Educational Robotics workshops, including delivery in local schools and to the surrounding community. Dissemination of the project on social media and documentation of the different stages of the workshops.</t>
-  </si>
-  <si>
-    <t>Jan, 2022 - Dec, 2022</t>
   </si>
 </sst>
 </file>

--- a/assets/experiences.xlsx
+++ b/assets/experiences.xlsx
@@ -25,7 +25,7 @@
     <t>Trilogic - Support for Teaching and Learning Programming Logic (Academic Project)</t>
   </si>
   <si>
-    <t>Organization of tasks and coordination of meetings to assign activities to participants. Testing and analysis of the previously developed Web platform. Planning and development of a new graphic design for the Web platform. Delivery of Programming Logic workshops for the platform's target audience.</t>
+    <t>Organize and lead tasks and team meetings. Test and evaluate the educational platform. Design a new visual identity and user experience for the web platform. Deliver programming logic workshops to high school students. Maintain and update the project’s website using WordPress. Manage the project’s social media to share updates and engage with the audience.</t>
   </si>
   <si>
     <t>Jan, 2021 - Dec, 2021</t>
@@ -34,7 +34,7 @@
     <t>Logimix - Educational Robotics Workshops in Professional Education: The Development of Computational Thinking as an Aid to Programming Logic (Academic Project)</t>
   </si>
   <si>
-    <t>Organization and planning of Educational Robotics workshops, including delivery in local schools and to the surrounding community. Dissemination of the project on social media and documentation of the different stages of the workshops.</t>
+    <t>Plan and deliver robotics workshops in local schools and surrounding communities. Create visual and written content for social media and manage project outreach. Document workshop stages and activities for internal and external reporting. Collaborate with the team to promote the development of computational thinking through educational robotics.</t>
   </si>
   <si>
     <t>Jan, 2022 - Dec, 2022</t>
@@ -43,7 +43,8 @@
     <t>Junior Software Developer</t>
   </si>
   <si>
-    <t>Active participation in problem-solving and bug fixing across Web (HTML, CSS, JS, PHP, and SQL), Android (Java), and iOS (Objective-C) platforms. Contribution to the design and development of new screens and features. Involvement in SCRUM refinement and planning ceremonies, supporting the understanding of requirements, definition of project goals, and organization of development team tasks.</t>
+    <t>Act as a Junior Software Developer, contributing to bug resolution and feature development across Web (HTML, CSS, JavaScript, PHP), Android (Java), and iOS (Objective-C) platforms. Responsible for building responsive user interfaces and integrating REST APIs. Participate in SCRUM ceremonies focused on requirements analysis and task planning.
+Currently leading the development of an integration project, collaborating on the architecture of a new solution with redesigned flows, updated business rules, new database structures (fields and tables), and API specifications. Use Miro for system mapping and documentation. Support the project through its implementation, bug resolution, and client assistance.</t>
   </si>
   <si>
     <t>Jun, 2023 - Present</t>
